--- a/docs/電腦打字國中中文乙組決賽名冊.xlsx
+++ b/docs/電腦打字國中中文乙組決賽名冊.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\igogo\Documents\IDEAProjects\readxls\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\igogo\Documents\資網中心\試場安排\2019資料\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="4140"/>
   </bookViews>
   <sheets>
     <sheet name="電腦打字國中中文乙組決賽名冊" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="191">
   <si>
     <t>序</t>
   </si>
@@ -48,34 +48,52 @@
     <t>大甲區日南國中</t>
   </si>
   <si>
-    <t>李奕源</t>
+    <t>林根儀</t>
   </si>
   <si>
     <t>陳隆勝</t>
   </si>
   <si>
-    <t>hpe76e5</t>
-  </si>
-  <si>
-    <t>frs95j3</t>
+    <t>y9g9</t>
+  </si>
+  <si>
+    <t>whp11n8</t>
+  </si>
+  <si>
+    <t>陳柏丞</t>
+  </si>
+  <si>
+    <t>tv25m6</t>
+  </si>
+  <si>
+    <t>v93sm6</t>
   </si>
   <si>
     <t>大安區大安國中</t>
   </si>
   <si>
-    <t>施翔彬</t>
-  </si>
-  <si>
-    <t>葉奕君</t>
-  </si>
-  <si>
-    <t>nc50rs2</t>
-  </si>
-  <si>
-    <t>wh15s5</t>
-  </si>
-  <si>
-    <t>大里區市立大里高中</t>
+    <t>謝欣蓉</t>
+  </si>
+  <si>
+    <t>蔡啟堂</t>
+  </si>
+  <si>
+    <t>etv86r4</t>
+  </si>
+  <si>
+    <t>hpe57pe9</t>
+  </si>
+  <si>
+    <t>趙彥祺</t>
+  </si>
+  <si>
+    <t>dx92k6</t>
+  </si>
+  <si>
+    <t>sm52et6</t>
+  </si>
+  <si>
+    <t>大里區大里高中</t>
   </si>
   <si>
     <t>陳傳其</t>
@@ -84,61 +102,28 @@
     <t>吳秀玲</t>
   </si>
   <si>
-    <t>r51tv2</t>
-  </si>
-  <si>
-    <t>a87n8</t>
-  </si>
-  <si>
-    <t>陳聖文</t>
-  </si>
-  <si>
-    <t>hp64g6</t>
-  </si>
-  <si>
-    <t>nc99et5</t>
-  </si>
-  <si>
-    <t>大里區立新國中</t>
-  </si>
-  <si>
-    <t>蔡易憲</t>
-  </si>
-  <si>
-    <t>孫烽耀</t>
-  </si>
-  <si>
-    <t>my74an3</t>
-  </si>
-  <si>
-    <t>bj28d5</t>
-  </si>
-  <si>
-    <t>卓書羽</t>
-  </si>
-  <si>
-    <t>ygw11cd5</t>
-  </si>
-  <si>
-    <t>pet51t8</t>
-  </si>
-  <si>
-    <t>劉泯佑</t>
-  </si>
-  <si>
-    <t>n20r9</t>
-  </si>
-  <si>
-    <t>c91t9</t>
-  </si>
-  <si>
-    <t>林承瀚</t>
-  </si>
-  <si>
-    <t>fr66nc3</t>
-  </si>
-  <si>
-    <t>sm71n6</t>
+    <t>gw32rs8</t>
+  </si>
+  <si>
+    <t>whp28y8</t>
+  </si>
+  <si>
+    <t>游偉崙</t>
+  </si>
+  <si>
+    <t>sm56b4</t>
+  </si>
+  <si>
+    <t>y68et2</t>
+  </si>
+  <si>
+    <t>林昱瑄</t>
+  </si>
+  <si>
+    <t>xb76j3</t>
+  </si>
+  <si>
+    <t>an52e9</t>
   </si>
   <si>
     <t>大里區光正國中</t>
@@ -147,22 +132,37 @@
     <t>蕭暐哲</t>
   </si>
   <si>
+    <t>江明達</t>
+  </si>
+  <si>
+    <t>gw89my7</t>
+  </si>
+  <si>
+    <t>v38x4</t>
+  </si>
+  <si>
+    <t>楊智評</t>
+  </si>
+  <si>
     <t>蔡佩勤</t>
   </si>
   <si>
-    <t>hp58my3</t>
-  </si>
-  <si>
-    <t>my96fr5</t>
-  </si>
-  <si>
-    <t>楊智評</t>
-  </si>
-  <si>
-    <t>hp88bj5</t>
-  </si>
-  <si>
-    <t>hp75b7</t>
+    <t>kf28dx1</t>
+  </si>
+  <si>
+    <t>jkf75pe6</t>
+  </si>
+  <si>
+    <t>陳姿慧</t>
+  </si>
+  <si>
+    <t>汪莉娟</t>
+  </si>
+  <si>
+    <t>g24e7</t>
+  </si>
+  <si>
+    <t>v43p5</t>
   </si>
   <si>
     <t>北屯區三光國中</t>
@@ -174,145 +174,154 @@
     <t>卓永祥</t>
   </si>
   <si>
-    <t>nc17x7</t>
-  </si>
-  <si>
-    <t>yg47et4</t>
-  </si>
-  <si>
-    <t>張勝南</t>
-  </si>
-  <si>
-    <t>my59hp5</t>
-  </si>
-  <si>
-    <t>w46gw1</t>
-  </si>
-  <si>
-    <t>蘇義翔</t>
-  </si>
-  <si>
-    <t>t20t2</t>
-  </si>
-  <si>
-    <t>kf86y4</t>
+    <t>b21sm2</t>
+  </si>
+  <si>
+    <t>hp7g2</t>
   </si>
   <si>
     <t>北區立人國中</t>
   </si>
   <si>
-    <t>呂智皓</t>
+    <t>范恩恩</t>
   </si>
   <si>
     <t>魏金羊</t>
   </si>
   <si>
-    <t>cdx34r3</t>
-  </si>
-  <si>
-    <t>kfr75t5</t>
-  </si>
-  <si>
-    <t>劉多加</t>
-  </si>
-  <si>
-    <t>ncd45an8</t>
-  </si>
-  <si>
-    <t>hp47nc2</t>
+    <t>kfr85t8</t>
+  </si>
+  <si>
+    <t>kf6yg3</t>
+  </si>
+  <si>
+    <t>許洺睿</t>
+  </si>
+  <si>
+    <t>rs66yg2</t>
+  </si>
+  <si>
+    <t>r66jk8</t>
+  </si>
+  <si>
+    <t>裘承儒</t>
+  </si>
+  <si>
+    <t>cd57gw1</t>
+  </si>
+  <si>
+    <t>s37h1</t>
   </si>
   <si>
     <t>北區曉明女中</t>
   </si>
   <si>
-    <t>許芷榕</t>
+    <t>施丞璦</t>
   </si>
   <si>
     <t>劉國聲</t>
   </si>
   <si>
-    <t>tv98dx4</t>
-  </si>
-  <si>
-    <t>fr24h8</t>
+    <t>tv5g2</t>
+  </si>
+  <si>
+    <t>c44my8</t>
+  </si>
+  <si>
+    <t>何師奇</t>
+  </si>
+  <si>
+    <t>dx21dx4</t>
+  </si>
+  <si>
+    <t>xb85bj9</t>
+  </si>
+  <si>
+    <t>外埔區外埔國中</t>
+  </si>
+  <si>
+    <t>游仁俊</t>
+  </si>
+  <si>
+    <t>林麗貞</t>
+  </si>
+  <si>
+    <t>n46et1</t>
+  </si>
+  <si>
+    <t>jk39tv5</t>
   </si>
   <si>
     <t>后里區后里國中</t>
   </si>
   <si>
+    <t>張芯瑜</t>
+  </si>
+  <si>
+    <t>李秦宇</t>
+  </si>
+  <si>
+    <t>v10tv3</t>
+  </si>
+  <si>
+    <t>t92kf8</t>
+  </si>
+  <si>
     <t>陳靚恩</t>
   </si>
   <si>
-    <t>劉怡君</t>
-  </si>
-  <si>
-    <t>g72my8</t>
-  </si>
-  <si>
-    <t>anc2y6</t>
-  </si>
-  <si>
-    <t>西屯區中山國中</t>
-  </si>
-  <si>
-    <t>袁守裕</t>
-  </si>
-  <si>
-    <t>何孟杰</t>
-  </si>
-  <si>
-    <t>jkf17m7</t>
-  </si>
-  <si>
-    <t>fr62my9</t>
+    <t>frs35rs1</t>
+  </si>
+  <si>
+    <t>j16v7</t>
+  </si>
+  <si>
+    <t>西屯區安和國中</t>
+  </si>
+  <si>
+    <t>陳宥融</t>
+  </si>
+  <si>
+    <t>梁育誠</t>
+  </si>
+  <si>
+    <t>dxb59kf5</t>
+  </si>
+  <si>
+    <t>fr35kf4</t>
   </si>
   <si>
     <t>西屯區至善國中</t>
   </si>
   <si>
-    <t>謝孟翰</t>
+    <t>劉佳勳</t>
   </si>
   <si>
     <t>邱贊生</t>
   </si>
   <si>
-    <t>h33d6</t>
-  </si>
-  <si>
-    <t>ncd11tv9</t>
-  </si>
-  <si>
-    <t>劉佳勳</t>
-  </si>
-  <si>
-    <t>f72y2</t>
-  </si>
-  <si>
-    <t>my29yg5</t>
-  </si>
-  <si>
-    <t>陳廉翔</t>
-  </si>
-  <si>
-    <t>v58jk6</t>
-  </si>
-  <si>
-    <t>cdx72s7</t>
-  </si>
-  <si>
-    <t>沙鹿區公明國中</t>
-  </si>
-  <si>
-    <t>尹俊程</t>
-  </si>
-  <si>
-    <t>何純瑩</t>
-  </si>
-  <si>
-    <t>jkf33hp7</t>
-  </si>
-  <si>
-    <t>cd73an2</t>
+    <t>bj86fr1</t>
+  </si>
+  <si>
+    <t>bjk53pe8</t>
+  </si>
+  <si>
+    <t>趙子桓</t>
+  </si>
+  <si>
+    <t>s57kf2</t>
+  </si>
+  <si>
+    <t>xbj79y6</t>
+  </si>
+  <si>
+    <t>張芸甄</t>
+  </si>
+  <si>
+    <t>v47e6</t>
+  </si>
+  <si>
+    <t>etv93w7</t>
   </si>
   <si>
     <t>沙鹿區北勢國中</t>
@@ -324,61 +333,82 @@
     <t>杜建勳</t>
   </si>
   <si>
-    <t>kf33v8</t>
-  </si>
-  <si>
-    <t>d78d4</t>
+    <t>et91p8</t>
+  </si>
+  <si>
+    <t>ncd33sm6</t>
   </si>
   <si>
     <t>陳睿凱</t>
   </si>
   <si>
-    <t>cdx86et4</t>
-  </si>
-  <si>
-    <t>myg12wh4</t>
-  </si>
-  <si>
-    <t>何明樺</t>
-  </si>
-  <si>
-    <t>徐佩珊</t>
-  </si>
-  <si>
-    <t>tv41dx7</t>
-  </si>
-  <si>
-    <t>f56m8</t>
-  </si>
-  <si>
-    <t>東區育英國中</t>
-  </si>
-  <si>
-    <t>賴暐成</t>
-  </si>
-  <si>
-    <t>童尚宏</t>
-  </si>
-  <si>
-    <t>rs5fr5</t>
-  </si>
-  <si>
-    <t>hp70fr2</t>
+    <t>yg36h6</t>
+  </si>
+  <si>
+    <t>t96f5</t>
+  </si>
+  <si>
+    <t>洪翊凱</t>
+  </si>
+  <si>
+    <t>kfr4t3</t>
+  </si>
+  <si>
+    <t>m89wh2</t>
   </si>
   <si>
     <t>南屯區大墩國中</t>
   </si>
   <si>
-    <t>謝學承</t>
-  </si>
-  <si>
-    <t>鍾承翰</t>
-  </si>
-  <si>
-    <t>cd22xb6</t>
-  </si>
-  <si>
-    <t>ncd22w9</t>
+    <t>劉晏菘</t>
+  </si>
+  <si>
+    <t>陳盛澤</t>
+  </si>
+  <si>
+    <t>jkf99dx7</t>
+  </si>
+  <si>
+    <t>yg80pe8</t>
+  </si>
+  <si>
+    <t>南屯區萬和國中</t>
+  </si>
+  <si>
+    <t>翁子涵</t>
+  </si>
+  <si>
+    <t>梁志平</t>
+  </si>
+  <si>
+    <t>anc34n5</t>
+  </si>
+  <si>
+    <t>r85y3</t>
+  </si>
+  <si>
+    <t>南區四育國中</t>
+  </si>
+  <si>
+    <t>陳晉聖</t>
+  </si>
+  <si>
+    <t>翁禎吟</t>
+  </si>
+  <si>
+    <t>et63hp4</t>
+  </si>
+  <si>
+    <t>b82j9</t>
+  </si>
+  <si>
+    <t>林品禛</t>
+  </si>
+  <si>
+    <t>b75h8</t>
+  </si>
+  <si>
+    <t>f44cd3</t>
   </si>
   <si>
     <t>烏日區烏日國中</t>
@@ -390,28 +420,28 @@
     <t>張淑貞</t>
   </si>
   <si>
-    <t>jkf76v1</t>
-  </si>
-  <si>
-    <t>et45p6</t>
-  </si>
-  <si>
-    <t>胡丞漢</t>
-  </si>
-  <si>
-    <t>nc13fr7</t>
-  </si>
-  <si>
-    <t>dx32f1</t>
-  </si>
-  <si>
-    <t>簡得桓</t>
-  </si>
-  <si>
-    <t>xb76a5</t>
-  </si>
-  <si>
-    <t>dx41xb5</t>
+    <t>jk77wh2</t>
+  </si>
+  <si>
+    <t>m1s5</t>
+  </si>
+  <si>
+    <t>張郁庭</t>
+  </si>
+  <si>
+    <t>rsm25p4</t>
+  </si>
+  <si>
+    <t>bj26w7</t>
+  </si>
+  <si>
+    <t>陳亞榆</t>
+  </si>
+  <si>
+    <t>cd67my3</t>
+  </si>
+  <si>
+    <t>k47fr4</t>
   </si>
   <si>
     <t>烏日區溪南國中</t>
@@ -423,34 +453,25 @@
     <t>胡啟有</t>
   </si>
   <si>
-    <t>sm4gw2</t>
-  </si>
-  <si>
-    <t>tv33pe4</t>
+    <t>jk27jk8</t>
+  </si>
+  <si>
+    <t>sm82rs4</t>
   </si>
   <si>
     <t>梧棲區梧棲國中</t>
   </si>
   <si>
-    <t>林伯叡</t>
+    <t>黃柏翰</t>
   </si>
   <si>
     <t>陳有量</t>
   </si>
   <si>
-    <t>wh2c2</t>
-  </si>
-  <si>
-    <t>b31tv2</t>
-  </si>
-  <si>
-    <t>黃柏翰</t>
-  </si>
-  <si>
-    <t>v85gw6</t>
-  </si>
-  <si>
-    <t>my8et7</t>
+    <t>an88jk9</t>
+  </si>
+  <si>
+    <t>tv2j3</t>
   </si>
   <si>
     <t>清水區清泉國中</t>
@@ -462,139 +483,115 @@
     <t>林清煙</t>
   </si>
   <si>
-    <t>b23r4</t>
-  </si>
-  <si>
-    <t>cdx96an9</t>
-  </si>
-  <si>
-    <t>黃鈺真</t>
-  </si>
-  <si>
-    <t>fr5gw9</t>
-  </si>
-  <si>
-    <t>j30e7</t>
+    <t>fr31b9</t>
+  </si>
+  <si>
+    <t>x7d3</t>
   </si>
   <si>
     <t>洪國祐</t>
   </si>
   <si>
-    <t>xbj43wh7</t>
-  </si>
-  <si>
-    <t>p91kf3</t>
-  </si>
-  <si>
-    <t>陳永泰</t>
-  </si>
-  <si>
-    <t>gw4wh5</t>
-  </si>
-  <si>
-    <t>j13v5</t>
+    <t>fr69sm6</t>
+  </si>
+  <si>
+    <t>gw52pe8</t>
+  </si>
+  <si>
+    <t>新社區新社高中</t>
+  </si>
+  <si>
+    <t>張庭愷</t>
+  </si>
+  <si>
+    <t>詹前霖</t>
+  </si>
+  <si>
+    <t>w35xb3</t>
+  </si>
+  <si>
+    <t>e75hp2</t>
   </si>
   <si>
     <t>潭子區潭子國中</t>
   </si>
   <si>
-    <t>石偉呈</t>
-  </si>
-  <si>
-    <t>余澤民</t>
-  </si>
-  <si>
-    <t>gw39t2</t>
-  </si>
-  <si>
-    <t>h75gw5</t>
+    <t>陳佳敏</t>
+  </si>
+  <si>
+    <t>葛衛群</t>
+  </si>
+  <si>
+    <t>pet67v4</t>
+  </si>
+  <si>
+    <t>kf58t8</t>
+  </si>
+  <si>
+    <t>紀宇珊</t>
+  </si>
+  <si>
+    <t>bj41m8</t>
+  </si>
+  <si>
+    <t>r11f7</t>
+  </si>
+  <si>
+    <t>蘇昱維</t>
+  </si>
+  <si>
+    <t>f16xb7</t>
+  </si>
+  <si>
+    <t>pe85an1</t>
   </si>
   <si>
     <t>龍井區四箴國中</t>
   </si>
   <si>
-    <t>陳彥睿</t>
-  </si>
-  <si>
-    <t>張文欽</t>
-  </si>
-  <si>
-    <t>tv78sm8</t>
-  </si>
-  <si>
-    <t>p56y3</t>
+    <t>陳利德</t>
+  </si>
+  <si>
+    <t>林永森</t>
+  </si>
+  <si>
+    <t>xb3kf3</t>
+  </si>
+  <si>
+    <t>yg17b3</t>
+  </si>
+  <si>
+    <t>蘇美娟</t>
+  </si>
+  <si>
+    <t>fr72et2</t>
+  </si>
+  <si>
+    <t>smy71sm6</t>
   </si>
   <si>
     <t>陳詠長</t>
   </si>
   <si>
-    <t>e14m8</t>
-  </si>
-  <si>
-    <t>w78my7</t>
-  </si>
-  <si>
-    <t>陳志豪</t>
-  </si>
-  <si>
-    <t>jk29my8</t>
-  </si>
-  <si>
-    <t>x4cd4</t>
-  </si>
-  <si>
-    <t>林玉玲</t>
-  </si>
-  <si>
-    <t>g46wh8</t>
-  </si>
-  <si>
-    <t>myg40kf4</t>
-  </si>
-  <si>
-    <t>龍井區龍津高中</t>
-  </si>
-  <si>
-    <t>施志儒</t>
-  </si>
-  <si>
-    <t>王筱婷</t>
-  </si>
-  <si>
-    <t>jk4e7</t>
-  </si>
-  <si>
-    <t>sm80a5</t>
-  </si>
-  <si>
-    <t>豐原區豐陽國中</t>
-  </si>
-  <si>
-    <t>張哲瑋</t>
-  </si>
-  <si>
-    <t>劉家浩</t>
-  </si>
-  <si>
-    <t>c45gw1</t>
-  </si>
-  <si>
-    <t>yg65k4</t>
-  </si>
-  <si>
-    <t>霧峰區光復國中小</t>
-  </si>
-  <si>
-    <t>江泰諺</t>
-  </si>
-  <si>
-    <t>蔡進雄</t>
-  </si>
-  <si>
-    <t>jk53rs3</t>
-  </si>
-  <si>
-    <t>jk60hp5</t>
+    <t>hpe72kf2</t>
+  </si>
+  <si>
+    <t>k43fr7</t>
+  </si>
+  <si>
+    <t>龍井區龍井國中</t>
+  </si>
+  <si>
+    <t>吳聖葆</t>
+  </si>
+  <si>
+    <t>梁永和</t>
+  </si>
+  <si>
+    <t>h76s4</t>
+  </si>
+  <si>
+    <t>w60s5</t>
   </si>
 </sst>
 </file>
@@ -1596,11 +1593,11 @@
   <cols>
     <col min="1" max="1" width="3.1796875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.36328125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.7265625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.90625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.1796875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.4">
@@ -1657,19 +1654,19 @@
         <v>7</v>
       </c>
       <c r="C3" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="E3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="G3" s="8" t="s">
         <v>15</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -1680,19 +1677,19 @@
         <v>7</v>
       </c>
       <c r="C4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="F4" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="G4" s="5" t="s">
         <v>20</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -1703,19 +1700,19 @@
         <v>7</v>
       </c>
       <c r="C5" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="F5" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="8" t="s">
         <v>23</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -1726,19 +1723,19 @@
         <v>7</v>
       </c>
       <c r="C6" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="F6" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="G6" s="5" t="s">
         <v>28</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -1749,19 +1746,19 @@
         <v>7</v>
       </c>
       <c r="C7" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="F7" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="G7" s="8" t="s">
         <v>31</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -1772,19 +1769,19 @@
         <v>7</v>
       </c>
       <c r="C8" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="F8" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G8" s="5" t="s">
         <v>34</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -1795,13 +1792,13 @@
         <v>7</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="D9" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" s="8" t="s">
         <v>37</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>28</v>
       </c>
       <c r="F9" s="8" t="s">
         <v>38</v>
@@ -1818,19 +1815,19 @@
         <v>7</v>
       </c>
       <c r="C10" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="E10" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="F10" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="G10" s="5" t="s">
         <v>43</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -1841,13 +1838,13 @@
         <v>7</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D11" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" s="8" t="s">
         <v>45</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>42</v>
       </c>
       <c r="F11" s="8" t="s">
         <v>46</v>
@@ -1887,19 +1884,19 @@
         <v>7</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="14" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -1910,19 +1907,19 @@
         <v>7</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -1933,13 +1930,13 @@
         <v>7</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="F15" s="8" t="s">
         <v>62</v>
@@ -1956,19 +1953,19 @@
         <v>7</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="17" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -1979,13 +1976,13 @@
         <v>7</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F17" s="8" t="s">
         <v>70</v>
@@ -2048,19 +2045,19 @@
         <v>7</v>
       </c>
       <c r="C20" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="D20" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="E20" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F20" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="E20" s="5" t="s">
+      <c r="G20" s="5" t="s">
         <v>84</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="G20" s="5" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="21" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -2071,13 +2068,13 @@
         <v>7</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D21" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="E21" s="8" t="s">
         <v>87</v>
-      </c>
-      <c r="E21" s="8" t="s">
-        <v>84</v>
       </c>
       <c r="F21" s="8" t="s">
         <v>88</v>
@@ -2094,19 +2091,19 @@
         <v>7</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="23" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -2117,13 +2114,13 @@
         <v>7</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="F23" s="8" t="s">
         <v>96</v>
@@ -2140,19 +2137,19 @@
         <v>7</v>
       </c>
       <c r="C24" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D24" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="D24" s="5" t="s">
+      <c r="E24" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="F24" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="E24" s="5" t="s">
+      <c r="G24" s="5" t="s">
         <v>100</v>
-      </c>
-      <c r="F24" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="G24" s="5" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="25" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -2163,13 +2160,13 @@
         <v>7</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D25" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="E25" s="8" t="s">
         <v>103</v>
-      </c>
-      <c r="E25" s="8" t="s">
-        <v>100</v>
       </c>
       <c r="F25" s="8" t="s">
         <v>104</v>
@@ -2186,19 +2183,19 @@
         <v>7</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D26" s="5" t="s">
         <v>106</v>
       </c>
       <c r="E26" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="F26" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="F26" s="5" t="s">
+      <c r="G26" s="5" t="s">
         <v>108</v>
-      </c>
-      <c r="G26" s="5" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="27" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -2209,19 +2206,19 @@
         <v>7</v>
       </c>
       <c r="C27" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="F27" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="D27" s="8" t="s">
+      <c r="G27" s="8" t="s">
         <v>111</v>
-      </c>
-      <c r="E27" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="F27" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="G27" s="8" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="28" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -2232,19 +2229,19 @@
         <v>7</v>
       </c>
       <c r="C28" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="F28" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="D28" s="5" t="s">
+      <c r="G28" s="5" t="s">
         <v>116</v>
-      </c>
-      <c r="E28" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="F28" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="G28" s="5" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="29" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -2255,19 +2252,19 @@
         <v>7</v>
       </c>
       <c r="C29" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="F29" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="D29" s="8" t="s">
+      <c r="G29" s="8" t="s">
         <v>121</v>
-      </c>
-      <c r="E29" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="F29" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="G29" s="8" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="30" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -2278,19 +2275,19 @@
         <v>7</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D30" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="F30" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="E30" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="F30" s="5" t="s">
+      <c r="G30" s="5" t="s">
         <v>126</v>
-      </c>
-      <c r="G30" s="5" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="31" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -2301,19 +2298,19 @@
         <v>7</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D31" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="F31" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="E31" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="F31" s="8" t="s">
+      <c r="G31" s="8" t="s">
         <v>129</v>
-      </c>
-      <c r="G31" s="8" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="32" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -2324,19 +2321,19 @@
         <v>7</v>
       </c>
       <c r="C32" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="D32" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="D32" s="5" t="s">
+      <c r="E32" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="E32" s="5" t="s">
+      <c r="F32" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="F32" s="5" t="s">
+      <c r="G32" s="5" t="s">
         <v>134</v>
-      </c>
-      <c r="G32" s="5" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="33" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -2347,19 +2344,19 @@
         <v>7</v>
       </c>
       <c r="C33" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="E33" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="F33" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="D33" s="8" t="s">
+      <c r="G33" s="8" t="s">
         <v>137</v>
-      </c>
-      <c r="E33" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="F33" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="G33" s="8" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="34" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -2370,19 +2367,19 @@
         <v>7</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="35" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -2393,19 +2390,19 @@
         <v>7</v>
       </c>
       <c r="C35" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="E35" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="F35" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="D35" s="8" t="s">
+      <c r="G35" s="8" t="s">
         <v>145</v>
-      </c>
-      <c r="E35" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="F35" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="G35" s="8" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="36" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -2416,19 +2413,19 @@
         <v>7</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D36" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="F36" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="E36" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="F36" s="5" t="s">
+      <c r="G36" s="5" t="s">
         <v>150</v>
-      </c>
-      <c r="G36" s="5" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="37" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -2439,19 +2436,19 @@
         <v>7</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="D37" s="8" t="s">
         <v>152</v>
       </c>
       <c r="E37" s="8" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="F37" s="8" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G37" s="8" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="38" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -2462,19 +2459,19 @@
         <v>7</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="G38" s="5" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="39" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -2485,19 +2482,19 @@
         <v>7</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E39" s="8" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F39" s="8" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G39" s="8" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="40" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -2508,19 +2505,19 @@
         <v>7</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G40" s="5" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="41" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -2531,19 +2528,19 @@
         <v>7</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E41" s="8" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F41" s="8" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="G41" s="8" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="42" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -2554,19 +2551,19 @@
         <v>7</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="G42" s="5" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="43" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -2577,19 +2574,19 @@
         <v>7</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>163</v>
+        <v>175</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="E43" s="8" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="F43" s="8" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="G43" s="8" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
     </row>
     <row r="44" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -2600,19 +2597,19 @@
         <v>7</v>
       </c>
       <c r="C44" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="E44" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="D44" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="E44" s="5" t="s">
-        <v>179</v>
-      </c>
       <c r="F44" s="5" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="G44" s="5" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="45" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -2623,19 +2620,19 @@
         <v>7</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="D45" s="8" t="s">
         <v>183</v>
       </c>
       <c r="E45" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="F45" s="8" t="s">
         <v>184</v>
       </c>
-      <c r="F45" s="8" t="s">
+      <c r="G45" s="8" t="s">
         <v>185</v>
-      </c>
-      <c r="G45" s="8" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="46" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -2646,19 +2643,19 @@
         <v>7</v>
       </c>
       <c r="C46" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="D46" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="D46" s="5" t="s">
+      <c r="E46" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="E46" s="5" t="s">
+      <c r="F46" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="F46" s="5" t="s">
+      <c r="G46" s="5" t="s">
         <v>190</v>
-      </c>
-      <c r="G46" s="5" t="s">
-        <v>191</v>
       </c>
     </row>
   </sheetData>
